--- a/excel/draft-penarikan-dana-tokoladang.xlsx
+++ b/excel/draft-penarikan-dana-tokoladang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIPLah marketplace\SOP-Toko-Ladang\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142375BF-1074-493C-AD29-70FE1AB2C3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C11B5B-71B4-4DF2-B979-24873C32FFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nomor SO</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Tuliskan nomor SO dan nominalnya, kemudian kirimkan file excel ini ke nomor CS keuangan</t>
-  </si>
-  <si>
     <t>https://wa.me/6281357337352</t>
   </si>
   <si>
@@ -126,6 +123,12 @@
   </si>
   <si>
     <t>SO1243</t>
+  </si>
+  <si>
+    <t>Tanggal Transfer</t>
+  </si>
+  <si>
+    <t>Tuliskan nomor SO, nominal, dan tanggal sekolah transfer, kemudian kirimkan file excel ini ke nomor CS keuangan</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +236,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -527,10 +536,11 @@
     <col min="2" max="2" width="11.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="22.1796875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -540,35 +550,37 @@
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D3" s="7">
         <f>SUM(D6:D101)</f>
         <v>250827400</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="G3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="2:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -578,11 +590,14 @@
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -592,8 +607,11 @@
       <c r="D6" s="3">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="12">
+        <v>40210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -603,8 +621,11 @@
       <c r="D7" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E7" s="12">
+        <v>40211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -614,8 +635,11 @@
       <c r="D8" s="3">
         <v>120000</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E8" s="12">
+        <v>40212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -625,80 +649,101 @@
       <c r="D9" s="3">
         <v>9000800</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="12">
+        <v>40213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>17881600</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="12">
+        <v>40214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>26762400</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="12">
+        <v>40215</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>35643200</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E12" s="12">
+        <v>40216</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>44524000</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E13" s="12">
+        <v>40217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>53404800</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E14" s="12">
+        <v>40218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>62285600</v>
       </c>
+      <c r="E15" s="12">
+        <v>40219</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F3:L4"/>
+    <mergeCell ref="G3:M4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{D1E18B60-407D-42D7-A5A3-7729EB0DFDFD}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{D1E18B60-407D-42D7-A5A3-7729EB0DFDFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
